--- a/example_excel_file.xlsx
+++ b/example_excel_file.xlsx
@@ -365,7 +365,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.9994836120644532</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>962.8076993486821</v>
@@ -491,7 +491,7 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>0.9069170269273633</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>480.7559316686151</v>
@@ -645,7 +645,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.9462635824606008</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <v>7488.891645067286</v>
@@ -687,7 +687,7 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0.9572341319175963</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>6478.131578314071</v>
@@ -883,7 +883,7 @@
         <v>53</v>
       </c>
       <c r="B39">
-        <v>0.9537613473103912</v>
+        <v>1</v>
       </c>
       <c r="C39">
         <v>460.5767237191087</v>
@@ -925,7 +925,7 @@
         <v>59</v>
       </c>
       <c r="B42">
-        <v>0.9414973257911723</v>
+        <v>1</v>
       </c>
       <c r="C42">
         <v>1416.152686262288</v>
@@ -1023,7 +1023,7 @@
         <v>76</v>
       </c>
       <c r="B49">
-        <v>0.9622537809094484</v>
+        <v>1</v>
       </c>
       <c r="C49">
         <v>6204.09328852646</v>
@@ -1065,7 +1065,7 @@
         <v>80</v>
       </c>
       <c r="B52">
-        <v>0.9837517968408487</v>
+        <v>1</v>
       </c>
       <c r="C52">
         <v>1300.82926498956</v>
@@ -1093,7 +1093,7 @@
         <v>82</v>
       </c>
       <c r="B54">
-        <v>0.9751664447782294</v>
+        <v>1</v>
       </c>
       <c r="C54">
         <v>1009.767503926501</v>
@@ -1163,7 +1163,7 @@
         <v>89</v>
       </c>
       <c r="B59">
-        <v>0.9638432090162313</v>
+        <v>1</v>
       </c>
       <c r="C59">
         <v>6324.182649316341</v>
@@ -1219,7 +1219,7 @@
         <v>96</v>
       </c>
       <c r="B63">
-        <v>0.9611010051505755</v>
+        <v>1</v>
       </c>
       <c r="C63">
         <v>6247.383037194944</v>
